--- a/data/pca/factorExposure/factorExposure_2017-09-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02335154629527357</v>
+        <v>0.00818330322889791</v>
       </c>
       <c r="C2">
-        <v>-0.00030771542131768</v>
+        <v>0.04131488658290706</v>
       </c>
       <c r="D2">
-        <v>0.01304449293813796</v>
+        <v>-0.02916500623420601</v>
       </c>
       <c r="E2">
-        <v>-0.01141862219627261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02389159805160976</v>
+      </c>
+      <c r="F2">
+        <v>0.0233620368548641</v>
+      </c>
+      <c r="G2">
+        <v>-0.02779480614453596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01322204143471553</v>
+        <v>0.05174601553009629</v>
       </c>
       <c r="C3">
-        <v>0.0423675201269191</v>
+        <v>0.07873185415616191</v>
       </c>
       <c r="D3">
-        <v>0.02112742607488893</v>
+        <v>-0.01445549114086974</v>
       </c>
       <c r="E3">
-        <v>-0.01055000279928145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08607981918781926</v>
+      </c>
+      <c r="F3">
+        <v>0.07092289310555827</v>
+      </c>
+      <c r="G3">
+        <v>-0.06880531573042928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02217071832960447</v>
+        <v>0.05728686166764519</v>
       </c>
       <c r="C4">
-        <v>0.0119813766011284</v>
+        <v>0.0629711783718105</v>
       </c>
       <c r="D4">
-        <v>0.06441192309440488</v>
+        <v>-0.02251501240768216</v>
       </c>
       <c r="E4">
-        <v>0.01464146834067934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01072892512283511</v>
+      </c>
+      <c r="F4">
+        <v>0.007568245358192825</v>
+      </c>
+      <c r="G4">
+        <v>-0.04877020907421076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01531571608520311</v>
+        <v>0.03184848953468466</v>
       </c>
       <c r="C6">
-        <v>0.01405554793466512</v>
+        <v>0.05234134225902094</v>
       </c>
       <c r="D6">
-        <v>0.08378781992916683</v>
+        <v>-0.01598575113803586</v>
       </c>
       <c r="E6">
-        <v>0.002007885451445533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01144396637798151</v>
+      </c>
+      <c r="F6">
+        <v>0.006335614775368368</v>
+      </c>
+      <c r="G6">
+        <v>-0.03026467691562243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01012824005339858</v>
+        <v>0.01706988844819128</v>
       </c>
       <c r="C7">
-        <v>0.0009428634889158201</v>
+        <v>0.03819955347648418</v>
       </c>
       <c r="D7">
-        <v>0.03523021328995105</v>
+        <v>-0.01312787560803355</v>
       </c>
       <c r="E7">
-        <v>0.0700071351122101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0120814961964281</v>
+      </c>
+      <c r="F7">
+        <v>0.001052425154317795</v>
+      </c>
+      <c r="G7">
+        <v>-0.08099296924241471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.000122004902347531</v>
+        <v>-0.003400198173493904</v>
       </c>
       <c r="C8">
-        <v>-0.007520192027933991</v>
+        <v>0.01876455002191952</v>
       </c>
       <c r="D8">
-        <v>0.007720333817984001</v>
+        <v>-0.003966491619731129</v>
       </c>
       <c r="E8">
-        <v>0.007886283738157305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02140172948662854</v>
+      </c>
+      <c r="F8">
+        <v>0.02298174428262397</v>
+      </c>
+      <c r="G8">
+        <v>-0.02407942304538003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01473053988072968</v>
+        <v>0.02949743231443311</v>
       </c>
       <c r="C9">
-        <v>0.01181636247593304</v>
+        <v>0.04340857384352415</v>
       </c>
       <c r="D9">
-        <v>0.04816998797142217</v>
+        <v>-0.01592648568847146</v>
       </c>
       <c r="E9">
-        <v>0.003872617011190117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01133706258983405</v>
+      </c>
+      <c r="F9">
+        <v>0.01567811597110856</v>
+      </c>
+      <c r="G9">
+        <v>-0.03988964529769678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01147074809574609</v>
+        <v>0.09482526566819438</v>
       </c>
       <c r="C10">
-        <v>0.1664354918634218</v>
+        <v>-0.1816781384299109</v>
       </c>
       <c r="D10">
-        <v>-0.1114730237059634</v>
+        <v>0.01794684671950045</v>
       </c>
       <c r="E10">
-        <v>0.0160118499967286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01212502459045045</v>
+      </c>
+      <c r="F10">
+        <v>-0.01246933195555077</v>
+      </c>
+      <c r="G10">
+        <v>-0.04052398643644704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001346261964277112</v>
+        <v>0.03238654680672608</v>
       </c>
       <c r="C11">
-        <v>0.001474132178271666</v>
+        <v>0.05429556651343866</v>
       </c>
       <c r="D11">
-        <v>0.04462861443892494</v>
+        <v>-0.001823617461500279</v>
       </c>
       <c r="E11">
-        <v>-0.0104449425795304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001472834138021707</v>
+      </c>
+      <c r="F11">
+        <v>0.017409603721061</v>
+      </c>
+      <c r="G11">
+        <v>-0.02264770183251416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005440171629777704</v>
+        <v>0.03078761543865793</v>
       </c>
       <c r="C12">
-        <v>0.01014163022192396</v>
+        <v>0.04600220349883331</v>
       </c>
       <c r="D12">
-        <v>0.04585922286158157</v>
+        <v>-0.005878502352459084</v>
       </c>
       <c r="E12">
-        <v>-0.0008921644620505346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.004501654411154382</v>
+      </c>
+      <c r="F12">
+        <v>0.003318665455387763</v>
+      </c>
+      <c r="G12">
+        <v>-0.02671940725318114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02122175396829929</v>
+        <v>0.01321677254211577</v>
       </c>
       <c r="C13">
-        <v>0.01065722171312839</v>
+        <v>0.03296949180655901</v>
       </c>
       <c r="D13">
-        <v>0.01639161241923338</v>
+        <v>-0.02479017567829416</v>
       </c>
       <c r="E13">
-        <v>-0.007808220950580462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01918731737141262</v>
+      </c>
+      <c r="F13">
+        <v>0.01516182702475741</v>
+      </c>
+      <c r="G13">
+        <v>-0.03426653011527401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007005738146965947</v>
+        <v>0.006965911107864993</v>
       </c>
       <c r="C14">
-        <v>0.01042631661285822</v>
+        <v>0.02746261694544077</v>
       </c>
       <c r="D14">
-        <v>0.01726863532933539</v>
+        <v>-0.008790646593144408</v>
       </c>
       <c r="E14">
-        <v>0.01068379718935399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.007155621086548515</v>
+      </c>
+      <c r="F14">
+        <v>-0.002907013626151312</v>
+      </c>
+      <c r="G14">
+        <v>-0.04080297495613702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0006576798243014354</v>
+        <v>0.03015405726490941</v>
       </c>
       <c r="C16">
-        <v>0.009091472348251077</v>
+        <v>0.04460119473093344</v>
       </c>
       <c r="D16">
-        <v>0.04744249859532989</v>
+        <v>-0.001387760188871565</v>
       </c>
       <c r="E16">
-        <v>-0.00359395198069136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.003922461424565005</v>
+      </c>
+      <c r="F16">
+        <v>0.007929115152008503</v>
+      </c>
+      <c r="G16">
+        <v>-0.02477560917157613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01309617493223622</v>
+        <v>0.02421799920809602</v>
       </c>
       <c r="C19">
-        <v>0.02243200990253159</v>
+        <v>0.05087833656949944</v>
       </c>
       <c r="D19">
-        <v>0.02922500961268143</v>
+        <v>-0.01606853859787078</v>
       </c>
       <c r="E19">
-        <v>0.005567087840003155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04937501332591283</v>
+      </c>
+      <c r="F19">
+        <v>0.03131874630045066</v>
+      </c>
+      <c r="G19">
+        <v>-0.04967215579788314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01030383175113873</v>
+        <v>0.0111352501008765</v>
       </c>
       <c r="C20">
-        <v>0.005832378669183572</v>
+        <v>0.03499233151743346</v>
       </c>
       <c r="D20">
-        <v>0.01266997248720686</v>
+        <v>-0.01309344376719727</v>
       </c>
       <c r="E20">
-        <v>-0.0003687456269569146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02097563470278599</v>
+      </c>
+      <c r="F20">
+        <v>-0.0008910603516501792</v>
+      </c>
+      <c r="G20">
+        <v>-0.03921284667299942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01385461819567857</v>
+        <v>0.01355492509796014</v>
       </c>
       <c r="C21">
-        <v>0.0319049511931504</v>
+        <v>0.03727230575845503</v>
       </c>
       <c r="D21">
-        <v>0.02344622061790486</v>
+        <v>-0.01622251466240248</v>
       </c>
       <c r="E21">
-        <v>0.0190464721785394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02780533498688938</v>
+      </c>
+      <c r="F21">
+        <v>0.009618999375103875</v>
+      </c>
+      <c r="G21">
+        <v>-0.06017108366301181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004736539923855867</v>
+        <v>0.02451365837443829</v>
       </c>
       <c r="C24">
-        <v>0.001659610821642975</v>
+        <v>0.04751916926964787</v>
       </c>
       <c r="D24">
-        <v>0.0442014809093803</v>
+        <v>-0.00680697940270077</v>
       </c>
       <c r="E24">
-        <v>-0.004811301838471768</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0006609691102005163</v>
+      </c>
+      <c r="F24">
+        <v>0.01464718351714128</v>
+      </c>
+      <c r="G24">
+        <v>-0.02671016841552465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01116609460931815</v>
+        <v>0.04084060312619515</v>
       </c>
       <c r="C25">
-        <v>0.01753407765319115</v>
+        <v>0.05496366159213307</v>
       </c>
       <c r="D25">
-        <v>0.04609725821215049</v>
+        <v>-0.01082426106418377</v>
       </c>
       <c r="E25">
-        <v>-0.004027687111989015</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.007267364184261861</v>
+      </c>
+      <c r="F25">
+        <v>0.008830815614563461</v>
+      </c>
+      <c r="G25">
+        <v>-0.03258994618237374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02244684901292826</v>
+        <v>0.01034826033087037</v>
       </c>
       <c r="C26">
-        <v>0.008053517311008116</v>
+        <v>0.00941085354353763</v>
       </c>
       <c r="D26">
-        <v>-0.004599644219349528</v>
+        <v>-0.02382699080920489</v>
       </c>
       <c r="E26">
-        <v>0.009182586051131014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.00589748988044698</v>
+      </c>
+      <c r="F26">
+        <v>0.003211942771493781</v>
+      </c>
+      <c r="G26">
+        <v>-0.03209140861548619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.03001420489360431</v>
+        <v>0.1219749469953568</v>
       </c>
       <c r="C28">
-        <v>0.2461777628465928</v>
+        <v>-0.2230231072329609</v>
       </c>
       <c r="D28">
-        <v>-0.1574294881512775</v>
+        <v>0.008908224178039752</v>
       </c>
       <c r="E28">
-        <v>0.02700455896870833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.0003695771059530163</v>
+      </c>
+      <c r="F28">
+        <v>-0.01026014014516041</v>
+      </c>
+      <c r="G28">
+        <v>-0.06009810646455872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00724652023451773</v>
+        <v>0.01248466119724991</v>
       </c>
       <c r="C29">
-        <v>0.01592296691593525</v>
+        <v>0.02139675984570519</v>
       </c>
       <c r="D29">
-        <v>0.01487268653638659</v>
+        <v>-0.007446764350036704</v>
       </c>
       <c r="E29">
-        <v>0.007038821681167755</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.008845749999121664</v>
+      </c>
+      <c r="F29">
+        <v>-0.01214315178253908</v>
+      </c>
+      <c r="G29">
+        <v>-0.03129451068106842</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02307006427758692</v>
+        <v>0.04426324356618373</v>
       </c>
       <c r="C30">
-        <v>-0.00265744704274304</v>
+        <v>0.06778211400657308</v>
       </c>
       <c r="D30">
-        <v>0.06411780300363328</v>
+        <v>-0.02706054245203627</v>
       </c>
       <c r="E30">
-        <v>-0.05897543143347368</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.0329081500158226</v>
+      </c>
+      <c r="F30">
+        <v>0.04766212116339281</v>
+      </c>
+      <c r="G30">
+        <v>-0.009148295065937232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.007365227925417383</v>
+        <v>0.04461402349032603</v>
       </c>
       <c r="C31">
-        <v>0.04164359191655483</v>
+        <v>0.03288695819195201</v>
       </c>
       <c r="D31">
-        <v>0.04465885845104305</v>
+        <v>-0.003316068733128113</v>
       </c>
       <c r="E31">
-        <v>0.005677592717136228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.007130962718781535</v>
+      </c>
+      <c r="F31">
+        <v>-0.03883412549699563</v>
+      </c>
+      <c r="G31">
+        <v>-0.02680718906140288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007170197825875911</v>
+        <v>0.0008855319967066166</v>
       </c>
       <c r="C32">
-        <v>0.01401660946946836</v>
+        <v>0.0348601055604979</v>
       </c>
       <c r="D32">
-        <v>0.006164628972783318</v>
+        <v>0.004134274281151307</v>
       </c>
       <c r="E32">
-        <v>0.02850393201978573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.006597601921298462</v>
+      </c>
+      <c r="F32">
+        <v>0.0501292194862539</v>
+      </c>
+      <c r="G32">
+        <v>-0.05934220605895647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01218856621476421</v>
+        <v>0.02529097917679805</v>
       </c>
       <c r="C33">
-        <v>0.02135165320535522</v>
+        <v>0.04896446249114125</v>
       </c>
       <c r="D33">
-        <v>0.02554357538716233</v>
+        <v>-0.01431530098747044</v>
       </c>
       <c r="E33">
-        <v>-0.02343576078714195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01996575804910594</v>
+      </c>
+      <c r="F33">
+        <v>0.02567679949225427</v>
+      </c>
+      <c r="G33">
+        <v>-0.03628791657570878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004885647497985869</v>
+        <v>0.04324792554392298</v>
       </c>
       <c r="C34">
-        <v>0.01567290416497176</v>
+        <v>0.05586681629299176</v>
       </c>
       <c r="D34">
-        <v>0.05037214634578571</v>
+        <v>0.005337676463018193</v>
       </c>
       <c r="E34">
-        <v>0.003812337911308219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01008644184601518</v>
+      </c>
+      <c r="F34">
+        <v>0.01779853347337629</v>
+      </c>
+      <c r="G34">
+        <v>-0.03786098836091273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01170485177438551</v>
+        <v>0.01060511167850432</v>
       </c>
       <c r="C36">
-        <v>0.01682703614741105</v>
+        <v>0.007751019995694099</v>
       </c>
       <c r="D36">
-        <v>0.002945404806475497</v>
+        <v>-0.01150899246311689</v>
       </c>
       <c r="E36">
-        <v>0.003085136051023728</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001302039441691917</v>
+      </c>
+      <c r="F36">
+        <v>-0.003555948134524719</v>
+      </c>
+      <c r="G36">
+        <v>-0.02508097582110929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005826168075522392</v>
+        <v>0.03075650286640985</v>
       </c>
       <c r="C38">
-        <v>0.02877239179917146</v>
+        <v>0.02674047089457079</v>
       </c>
       <c r="D38">
-        <v>0.02120537419534535</v>
+        <v>0.007621293346166192</v>
       </c>
       <c r="E38">
-        <v>0.003498035646899076</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003680117071335114</v>
+      </c>
+      <c r="F38">
+        <v>-0.005310540039593594</v>
+      </c>
+      <c r="G38">
+        <v>-0.03375345235826988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005749188223059626</v>
+        <v>0.0297217368308661</v>
       </c>
       <c r="C39">
-        <v>-0.02602324889526634</v>
+        <v>0.08173076242018625</v>
       </c>
       <c r="D39">
-        <v>0.09077371504146488</v>
+        <v>-0.01210215164352856</v>
       </c>
       <c r="E39">
-        <v>-0.01270197059956803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02054471192461348</v>
+      </c>
+      <c r="F39">
+        <v>0.03840851392502046</v>
+      </c>
+      <c r="G39">
+        <v>-0.02871542881597717</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01011733721509286</v>
+        <v>0.02001830392872437</v>
       </c>
       <c r="C40">
-        <v>0.009511057630416349</v>
+        <v>0.03158946845988515</v>
       </c>
       <c r="D40">
-        <v>0.04014788897856337</v>
+        <v>-0.01284705853420049</v>
       </c>
       <c r="E40">
-        <v>-0.007607478723604092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.016969204636256</v>
+      </c>
+      <c r="F40">
+        <v>0.01863813746096763</v>
+      </c>
+      <c r="G40">
+        <v>-0.02575795837197584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.005096291237952237</v>
+        <v>0.01220107408053877</v>
       </c>
       <c r="C41">
-        <v>0.02182720676873519</v>
+        <v>-0.0002762621084260764</v>
       </c>
       <c r="D41">
-        <v>-0.008123454705486711</v>
+        <v>-0.003572591451450283</v>
       </c>
       <c r="E41">
-        <v>0.004731615403479017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002916992267694307</v>
+      </c>
+      <c r="F41">
+        <v>-0.002394450932160345</v>
+      </c>
+      <c r="G41">
+        <v>-0.01695166541779124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09418436055832445</v>
+        <v>0.01766772370606765</v>
       </c>
       <c r="C42">
-        <v>-0.008448607400518874</v>
+        <v>0.04530934178172848</v>
       </c>
       <c r="D42">
-        <v>0.2584376997120585</v>
+        <v>-0.09532580031461334</v>
       </c>
       <c r="E42">
-        <v>-0.2965815785961107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04117993430662653</v>
+      </c>
+      <c r="F42">
+        <v>-0.04651845901800496</v>
+      </c>
+      <c r="G42">
+        <v>0.1745640342438954</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005975434039681029</v>
+        <v>0.02733567110102889</v>
       </c>
       <c r="C43">
-        <v>0.02152212020435866</v>
+        <v>0.01030956043819248</v>
       </c>
       <c r="D43">
-        <v>-0.01192630000768277</v>
+        <v>-0.003985299266785566</v>
       </c>
       <c r="E43">
-        <v>0.0001253803987118417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003428795185573398</v>
+      </c>
+      <c r="F43">
+        <v>-0.003602719892268564</v>
+      </c>
+      <c r="G43">
+        <v>-0.02244957345540773</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002873011448951985</v>
+        <v>0.01415089489306267</v>
       </c>
       <c r="C44">
-        <v>-0.00157482923911679</v>
+        <v>0.04990000042268311</v>
       </c>
       <c r="D44">
-        <v>0.0274180161920715</v>
+        <v>-0.006289772983102285</v>
       </c>
       <c r="E44">
-        <v>0.002284471475384801</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0151615868088577</v>
+      </c>
+      <c r="F44">
+        <v>0.007620336498394927</v>
+      </c>
+      <c r="G44">
+        <v>-0.03945320295344549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01101895853510576</v>
+        <v>0.005699619361642472</v>
       </c>
       <c r="C46">
-        <v>0.0181791876272174</v>
+        <v>0.01780707521462809</v>
       </c>
       <c r="D46">
-        <v>0.01704306071003821</v>
+        <v>-0.01192862208634811</v>
       </c>
       <c r="E46">
-        <v>-0.00184588170316313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001694027817158952</v>
+      </c>
+      <c r="F46">
+        <v>-0.01411270818755878</v>
+      </c>
+      <c r="G46">
+        <v>-0.02721525014394324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.001348358272634093</v>
+        <v>0.07312772771797661</v>
       </c>
       <c r="C47">
-        <v>0.05232365901953762</v>
+        <v>0.06652841393772051</v>
       </c>
       <c r="D47">
-        <v>0.05787087534193457</v>
+        <v>0.00503236478215854</v>
       </c>
       <c r="E47">
-        <v>-0.004329967905844094</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007643364956658862</v>
+      </c>
+      <c r="F47">
+        <v>-0.05886425562852275</v>
+      </c>
+      <c r="G47">
+        <v>-0.02393664073209171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002571956915853373</v>
+        <v>0.0209144119055594</v>
       </c>
       <c r="C48">
-        <v>0.02520383014764278</v>
+        <v>0.01061820186781061</v>
       </c>
       <c r="D48">
-        <v>0.01362986864918285</v>
+        <v>-0.0008994290662066642</v>
       </c>
       <c r="E48">
-        <v>0.001305943332418495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002533132302212728</v>
+      </c>
+      <c r="F48">
+        <v>-0.01370568230048069</v>
+      </c>
+      <c r="G48">
+        <v>-0.02978697173529614</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.002440302187776691</v>
+        <v>0.07680912110582268</v>
       </c>
       <c r="C50">
-        <v>0.04224515080529555</v>
+        <v>0.06841115863972</v>
       </c>
       <c r="D50">
-        <v>0.06537640436563265</v>
+        <v>0.003490895302536468</v>
       </c>
       <c r="E50">
-        <v>0.02240497961501324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01097294702091536</v>
+      </c>
+      <c r="F50">
+        <v>-0.05835008843548983</v>
+      </c>
+      <c r="G50">
+        <v>-0.0475179037417239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006899273347739315</v>
+        <v>0.01057508376727492</v>
       </c>
       <c r="C51">
-        <v>0.01875183766437969</v>
+        <v>0.02775569397441251</v>
       </c>
       <c r="D51">
-        <v>-0.01010480757677973</v>
+        <v>-0.00904964675552382</v>
       </c>
       <c r="E51">
-        <v>0.009524867565080754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006946881568177896</v>
+      </c>
+      <c r="F51">
+        <v>0.02393649370895312</v>
+      </c>
+      <c r="G51">
+        <v>-0.05428413626854394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.004158729678515626</v>
+        <v>0.09014621397751751</v>
       </c>
       <c r="C53">
-        <v>0.06345878399549737</v>
+        <v>0.08275851887321034</v>
       </c>
       <c r="D53">
-        <v>0.1150219396602539</v>
+        <v>0.00496541915734986</v>
       </c>
       <c r="E53">
-        <v>0.0009283819899546357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03825688073844506</v>
+      </c>
+      <c r="F53">
+        <v>-0.06810669703874883</v>
+      </c>
+      <c r="G53">
+        <v>-0.02597223971674983</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0009483002329133659</v>
+        <v>0.02771832326454726</v>
       </c>
       <c r="C54">
-        <v>0.03467641733793379</v>
+        <v>0.01046039432806582</v>
       </c>
       <c r="D54">
-        <v>-0.005408921442992412</v>
+        <v>0.002869536814874166</v>
       </c>
       <c r="E54">
-        <v>0.01101542281247919</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001552368064172322</v>
+      </c>
+      <c r="F54">
+        <v>-0.001457688992318378</v>
+      </c>
+      <c r="G54">
+        <v>-0.0349319648125803</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.001749215617719616</v>
+        <v>0.07136091561031477</v>
       </c>
       <c r="C55">
-        <v>0.04574550290836027</v>
+        <v>0.07433509067232089</v>
       </c>
       <c r="D55">
-        <v>0.09809975593565586</v>
+        <v>0.00454817743848665</v>
       </c>
       <c r="E55">
-        <v>-0.01119553877999842</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02471803990674831</v>
+      </c>
+      <c r="F55">
+        <v>-0.05968666731107688</v>
+      </c>
+      <c r="G55">
+        <v>-0.01061686841024366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0009943567722478109</v>
+        <v>0.1411055286450853</v>
       </c>
       <c r="C56">
-        <v>0.08172746096276515</v>
+        <v>0.1071190614893481</v>
       </c>
       <c r="D56">
-        <v>0.1460881386342368</v>
+        <v>0.01346307768060153</v>
       </c>
       <c r="E56">
-        <v>-0.01060115111684715</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03413870889357635</v>
+      </c>
+      <c r="F56">
+        <v>-0.09910394554815677</v>
+      </c>
+      <c r="G56">
+        <v>0.002793510841156123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02308954085831875</v>
+        <v>0.01070359505749207</v>
       </c>
       <c r="C57">
-        <v>0.01867575535324972</v>
+        <v>0.01060425494159695</v>
       </c>
       <c r="D57">
-        <v>0.03820754729135329</v>
+        <v>-0.02350234559017472</v>
       </c>
       <c r="E57">
-        <v>-0.01013176039628306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02646496871899604</v>
+      </c>
+      <c r="F57">
+        <v>0.01748216886368778</v>
+      </c>
+      <c r="G57">
+        <v>-0.0201898056073188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.010572994183228</v>
+        <v>0.0862527013277154</v>
       </c>
       <c r="C58">
-        <v>0.09072649428225628</v>
+        <v>0.04746663594409087</v>
       </c>
       <c r="D58">
-        <v>0.1083810425520769</v>
+        <v>-0.01277226215776783</v>
       </c>
       <c r="E58">
-        <v>-0.2052270164465745</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9601104246112145</v>
+      </c>
+      <c r="F58">
+        <v>-0.1558447465704716</v>
+      </c>
+      <c r="G58">
+        <v>-0.004100301161582632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02605839125451348</v>
+        <v>0.1602277469855623</v>
       </c>
       <c r="C59">
-        <v>0.2532831978338433</v>
+        <v>-0.2066079616883783</v>
       </c>
       <c r="D59">
-        <v>-0.1555292382474061</v>
+        <v>0.01579424504834945</v>
       </c>
       <c r="E59">
-        <v>0.002332267239545196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.009816556750433386</v>
+      </c>
+      <c r="F59">
+        <v>0.009192888621079623</v>
+      </c>
+      <c r="G59">
+        <v>-0.02160822922397039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03141401509594405</v>
+        <v>0.2860799525337015</v>
       </c>
       <c r="C60">
-        <v>0.1540913946403387</v>
+        <v>0.1025823528595719</v>
       </c>
       <c r="D60">
-        <v>0.09804772776097725</v>
+        <v>-0.009752633649472962</v>
       </c>
       <c r="E60">
-        <v>-0.04855372129958954</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02777500152237388</v>
+      </c>
+      <c r="F60">
+        <v>0.3751373977858531</v>
+      </c>
+      <c r="G60">
+        <v>0.0767560643314084</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002995071535287498</v>
+        <v>0.0312208125540343</v>
       </c>
       <c r="C61">
-        <v>0.003118349183758902</v>
+        <v>0.06550541610875343</v>
       </c>
       <c r="D61">
-        <v>0.06725817168095968</v>
+        <v>-0.005355334110572375</v>
       </c>
       <c r="E61">
-        <v>-0.007446514455772791</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008515977595553909</v>
+      </c>
+      <c r="F61">
+        <v>0.02064851081220172</v>
+      </c>
+      <c r="G61">
+        <v>-0.02674112086708272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007155488548234981</v>
+        <v>0.0105306673855645</v>
       </c>
       <c r="C63">
-        <v>0.006298838427059916</v>
+        <v>0.02889665359456358</v>
       </c>
       <c r="D63">
-        <v>0.0082679786969537</v>
+        <v>-0.008222286756890854</v>
       </c>
       <c r="E63">
-        <v>0.008600679490694789</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006740642191769272</v>
+      </c>
+      <c r="F63">
+        <v>-0.01972148181075558</v>
+      </c>
+      <c r="G63">
+        <v>-0.03634097220740019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.007068018423908199</v>
+        <v>0.0492576143088547</v>
       </c>
       <c r="C64">
-        <v>0.02566620660155102</v>
+        <v>0.04029251472810622</v>
       </c>
       <c r="D64">
-        <v>0.07002633858831994</v>
+        <v>-0.005071351199470456</v>
       </c>
       <c r="E64">
-        <v>-0.01084782623252409</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006463829149497872</v>
+      </c>
+      <c r="F64">
+        <v>0.003480089576589729</v>
+      </c>
+      <c r="G64">
+        <v>-0.02328428321965487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01765843577626675</v>
+        <v>0.08177684928345788</v>
       </c>
       <c r="C65">
-        <v>0.01793705994980771</v>
+        <v>0.06561470779964257</v>
       </c>
       <c r="D65">
-        <v>0.09580538586259207</v>
+        <v>-0.01509990691182048</v>
       </c>
       <c r="E65">
-        <v>-0.0006070249927964638</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01119097583206178</v>
+      </c>
+      <c r="F65">
+        <v>0.0257326106982984</v>
+      </c>
+      <c r="G65">
+        <v>-0.01455681065685359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005399802589882176</v>
+        <v>0.05029318355979829</v>
       </c>
       <c r="C66">
-        <v>-0.01731472930877763</v>
+        <v>0.1149452840370205</v>
       </c>
       <c r="D66">
-        <v>0.1159366475114641</v>
+        <v>-0.01152728021089769</v>
       </c>
       <c r="E66">
-        <v>-0.02816568305737726</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02216240427604222</v>
+      </c>
+      <c r="F66">
+        <v>0.04542666483937013</v>
+      </c>
+      <c r="G66">
+        <v>-0.02139985593387225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0007306724341956304</v>
+        <v>0.05430957948395257</v>
       </c>
       <c r="C67">
-        <v>0.045991784975414</v>
+        <v>0.03196461197401957</v>
       </c>
       <c r="D67">
-        <v>0.02780342804119908</v>
+        <v>0.005899725779958886</v>
       </c>
       <c r="E67">
-        <v>0.00202120920697887</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003430151841381371</v>
+      </c>
+      <c r="F67">
+        <v>-0.006182824952395187</v>
+      </c>
+      <c r="G67">
+        <v>-0.03147410451254158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04434620340540386</v>
+        <v>0.1439550184575353</v>
       </c>
       <c r="C68">
-        <v>0.2298915345431476</v>
+        <v>-0.266922179586625</v>
       </c>
       <c r="D68">
-        <v>-0.1492002858422744</v>
+        <v>-0.002248873468580087</v>
       </c>
       <c r="E68">
-        <v>-0.003941119882830506</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01078630908560923</v>
+      </c>
+      <c r="F68">
+        <v>-0.0348351486594078</v>
+      </c>
+      <c r="G68">
+        <v>-0.02300719692080879</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.00316488213763066</v>
+        <v>0.07637044955241372</v>
       </c>
       <c r="C69">
-        <v>0.03736143195685444</v>
+        <v>0.06774975157025605</v>
       </c>
       <c r="D69">
-        <v>0.06264658577910417</v>
+        <v>0.00884151400754692</v>
       </c>
       <c r="E69">
-        <v>5.046825331919435e-05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02681537255336042</v>
+      </c>
+      <c r="F69">
+        <v>-0.04564857615129174</v>
+      </c>
+      <c r="G69">
+        <v>-0.02547223273865822</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.03112501123879004</v>
+        <v>0.1411918349089792</v>
       </c>
       <c r="C71">
-        <v>0.2020073176696093</v>
+        <v>-0.2302750447299117</v>
       </c>
       <c r="D71">
-        <v>-0.1368493143390543</v>
+        <v>0.007167345219623926</v>
       </c>
       <c r="E71">
-        <v>0.0113191250273897</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02165968529192545</v>
+      </c>
+      <c r="F71">
+        <v>-0.009520549422965874</v>
+      </c>
+      <c r="G71">
+        <v>-0.03389623752373116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002438773848696124</v>
+        <v>0.07993159542630743</v>
       </c>
       <c r="C72">
-        <v>0.03706169569659004</v>
+        <v>0.07547808922219199</v>
       </c>
       <c r="D72">
-        <v>0.1353681460449015</v>
+        <v>0.008397829895160839</v>
       </c>
       <c r="E72">
-        <v>-0.02958847090350612</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01395592649800768</v>
+      </c>
+      <c r="F72">
+        <v>0.03452473457489907</v>
+      </c>
+      <c r="G72">
+        <v>-0.005308980208533419</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04519520653828019</v>
+        <v>0.3918228849237206</v>
       </c>
       <c r="C73">
-        <v>0.183029630948077</v>
+        <v>0.1173305656639145</v>
       </c>
       <c r="D73">
-        <v>0.1647485045755409</v>
+        <v>-0.01491874628188166</v>
       </c>
       <c r="E73">
-        <v>-0.1078032138944599</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.01563653829532728</v>
+      </c>
+      <c r="F73">
+        <v>0.5528579694389062</v>
+      </c>
+      <c r="G73">
+        <v>0.1274474223390559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0006282909308542401</v>
+        <v>0.1142047940694698</v>
       </c>
       <c r="C74">
-        <v>0.07439045892775258</v>
+        <v>0.1212129491447346</v>
       </c>
       <c r="D74">
-        <v>0.1504604139692534</v>
+        <v>0.01015300987796732</v>
       </c>
       <c r="E74">
-        <v>-0.0189008391697275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01912147440813144</v>
+      </c>
+      <c r="F74">
+        <v>-0.08613162618255443</v>
+      </c>
+      <c r="G74">
+        <v>-0.03071954820571729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.002533040812177109</v>
+        <v>0.2563983311698143</v>
       </c>
       <c r="C75">
-        <v>0.1817224660858235</v>
+        <v>0.1604287613498765</v>
       </c>
       <c r="D75">
-        <v>0.2723368937919857</v>
+        <v>0.03086777671680305</v>
       </c>
       <c r="E75">
-        <v>-0.04271589879777117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05487728441004324</v>
+      </c>
+      <c r="F75">
+        <v>-0.2096416246817683</v>
+      </c>
+      <c r="G75">
+        <v>0.04791654070385718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.004426747234580575</v>
+        <v>0.1322874923673124</v>
       </c>
       <c r="C76">
-        <v>0.1259042507272357</v>
+        <v>0.1284586038791613</v>
       </c>
       <c r="D76">
-        <v>0.2361589106686839</v>
+        <v>0.02108722056189724</v>
       </c>
       <c r="E76">
-        <v>-0.003725448767741006</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05060498007091618</v>
+      </c>
+      <c r="F76">
+        <v>-0.1430465270332269</v>
+      </c>
+      <c r="G76">
+        <v>-0.01016570034318811</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01108500956082276</v>
+        <v>0.0623012113402313</v>
       </c>
       <c r="C77">
-        <v>0.009197895914599557</v>
+        <v>0.06488163350690823</v>
       </c>
       <c r="D77">
-        <v>0.06508538368173256</v>
+        <v>-0.01219582010657148</v>
       </c>
       <c r="E77">
-        <v>-0.003785920595130182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04645424691802465</v>
+      </c>
+      <c r="F77">
+        <v>0.01353122832995122</v>
+      </c>
+      <c r="G77">
+        <v>-0.05306439789259453</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003733971593627958</v>
+        <v>0.0384145320859628</v>
       </c>
       <c r="C78">
-        <v>0.003787252856451726</v>
+        <v>0.05159542037793064</v>
       </c>
       <c r="D78">
-        <v>0.06709727345428697</v>
+        <v>-0.005736238914379285</v>
       </c>
       <c r="E78">
-        <v>-0.004553424692733577</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01998883271676211</v>
+      </c>
+      <c r="F78">
+        <v>0.04227976136282032</v>
+      </c>
+      <c r="G78">
+        <v>-0.03620010182303705</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0147618581862716</v>
+        <v>0.05610362462641065</v>
       </c>
       <c r="C80">
-        <v>0.1175606233187252</v>
+        <v>0.06723013423156973</v>
       </c>
       <c r="D80">
-        <v>0.2267881092100905</v>
+        <v>-0.01262271717094847</v>
       </c>
       <c r="E80">
-        <v>0.8998291977386854</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0401062835281371</v>
+      </c>
+      <c r="F80">
+        <v>0.02953689551393463</v>
+      </c>
+      <c r="G80">
+        <v>-0.9120380094998287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.002574385900923318</v>
+        <v>0.1440720909466574</v>
       </c>
       <c r="C81">
-        <v>0.1186702921405311</v>
+        <v>0.09764721742944224</v>
       </c>
       <c r="D81">
-        <v>0.1701485752570862</v>
+        <v>0.01576837402684087</v>
       </c>
       <c r="E81">
-        <v>-0.01727668963613095</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.02987044950490862</v>
+      </c>
+      <c r="F81">
+        <v>-0.1380821594568243</v>
+      </c>
+      <c r="G81">
+        <v>-0.009073294696070345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05170494189088314</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.04081859089431409</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002561460166367722</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02171037974356336</v>
+      </c>
+      <c r="F82">
+        <v>-0.01064699437255459</v>
+      </c>
+      <c r="G82">
+        <v>0.005812927827492378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006479329056470889</v>
+        <v>0.02845867749645776</v>
       </c>
       <c r="C83">
-        <v>0.0251622251202423</v>
+        <v>0.02162175442788524</v>
       </c>
       <c r="D83">
-        <v>0.02575389119792393</v>
+        <v>-0.004903755131542916</v>
       </c>
       <c r="E83">
-        <v>-0.006488307475293549</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.0244192669572035</v>
+      </c>
+      <c r="F83">
+        <v>0.01940129133124989</v>
+      </c>
+      <c r="G83">
+        <v>-0.02196786403229336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01051057049044606</v>
+        <v>0.2296179839052246</v>
       </c>
       <c r="C85">
-        <v>0.1417814579824108</v>
+        <v>0.1570446257664584</v>
       </c>
       <c r="D85">
-        <v>0.2647524892420716</v>
+        <v>0.01903026998114192</v>
       </c>
       <c r="E85">
-        <v>-0.0443093237679315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1029944151941398</v>
+      </c>
+      <c r="F85">
+        <v>-0.1896686045840527</v>
+      </c>
+      <c r="G85">
+        <v>0.06625049233963982</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.006719507819840095</v>
+        <v>0.01103745894363501</v>
       </c>
       <c r="C86">
-        <v>0.02509716362734865</v>
+        <v>0.01570155278953353</v>
       </c>
       <c r="D86">
-        <v>0.0124006820231355</v>
+        <v>-0.009547290165455769</v>
       </c>
       <c r="E86">
-        <v>-0.02167701490588974</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02736673904463449</v>
+      </c>
+      <c r="F86">
+        <v>0.03638244974060796</v>
+      </c>
+      <c r="G86">
+        <v>-0.05316582602996611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007193977825737906</v>
+        <v>0.01949620110513503</v>
       </c>
       <c r="C87">
-        <v>0.008191918820783052</v>
+        <v>0.02662616804376348</v>
       </c>
       <c r="D87">
-        <v>0.03974265356626473</v>
+        <v>-0.01052372912258757</v>
       </c>
       <c r="E87">
-        <v>-0.006873187958138719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08334291305033435</v>
+      </c>
+      <c r="F87">
+        <v>0.03390824417704396</v>
+      </c>
+      <c r="G87">
+        <v>-0.04629057832010129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02617916403224559</v>
+        <v>0.09002510073439947</v>
       </c>
       <c r="C88">
-        <v>0.0371828735946401</v>
+        <v>0.06363086969605777</v>
       </c>
       <c r="D88">
-        <v>0.03344963656370985</v>
+        <v>-0.02188496759000114</v>
       </c>
       <c r="E88">
-        <v>-0.004450658296996312</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01354001825540584</v>
+      </c>
+      <c r="F88">
+        <v>-0.01239465038794631</v>
+      </c>
+      <c r="G88">
+        <v>-0.02234879037449598</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05971090059360373</v>
+        <v>0.2344554960692359</v>
       </c>
       <c r="C89">
-        <v>0.3728941474957826</v>
+        <v>-0.360398170897733</v>
       </c>
       <c r="D89">
-        <v>-0.2236206734503837</v>
+        <v>0.006665571963919002</v>
       </c>
       <c r="E89">
-        <v>-0.007499587894710008</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02069380856464523</v>
+      </c>
+      <c r="F89">
+        <v>-0.03607718518336763</v>
+      </c>
+      <c r="G89">
+        <v>-0.02921918434413221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04539138623924507</v>
+        <v>0.2029488746152896</v>
       </c>
       <c r="C90">
-        <v>0.2918616732887813</v>
+        <v>-0.3279904397384522</v>
       </c>
       <c r="D90">
-        <v>-0.2173768528823566</v>
+        <v>0.01023340870458701</v>
       </c>
       <c r="E90">
-        <v>-0.008832037455175757</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01097447656011151</v>
+      </c>
+      <c r="F90">
+        <v>-0.0479739200109098</v>
+      </c>
+      <c r="G90">
+        <v>5.335453344672102e-05</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0009698099475917778</v>
+        <v>0.2020195487597527</v>
       </c>
       <c r="C91">
-        <v>0.1453141495120638</v>
+        <v>0.1440723854322501</v>
       </c>
       <c r="D91">
-        <v>0.2468403869317813</v>
+        <v>0.02457486425349025</v>
       </c>
       <c r="E91">
-        <v>-0.02343413011801841</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07158306949457684</v>
+      </c>
+      <c r="F91">
+        <v>-0.1853460508993183</v>
+      </c>
+      <c r="G91">
+        <v>0.004225632168983092</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.01125440004060131</v>
+        <v>0.2105381116797312</v>
       </c>
       <c r="C92">
-        <v>0.3314026804671251</v>
+        <v>-0.2534039741774537</v>
       </c>
       <c r="D92">
-        <v>-0.07565028895153204</v>
+        <v>0.04844013263628337</v>
       </c>
       <c r="E92">
-        <v>-0.008272824437833025</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0002309447716633862</v>
+      </c>
+      <c r="F92">
+        <v>-0.1135745249853018</v>
+      </c>
+      <c r="G92">
+        <v>-0.05998410039809741</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04279324808811515</v>
+        <v>0.2302603945131407</v>
       </c>
       <c r="C93">
-        <v>0.326685298241892</v>
+        <v>-0.3300428184998209</v>
       </c>
       <c r="D93">
-        <v>-0.2115930862986357</v>
+        <v>0.01777377019250436</v>
       </c>
       <c r="E93">
-        <v>-0.03277598467664288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002281885838408354</v>
+      </c>
+      <c r="F93">
+        <v>-0.02791254873029287</v>
+      </c>
+      <c r="G93">
+        <v>0.002506893625450679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.02069942900260552</v>
+        <v>0.2799922516481481</v>
       </c>
       <c r="C94">
-        <v>0.1920305184520322</v>
+        <v>0.1768468245586927</v>
       </c>
       <c r="D94">
-        <v>0.2466208882132473</v>
+        <v>0.01293549008810652</v>
       </c>
       <c r="E94">
-        <v>-0.06846216516520545</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.08946329105602822</v>
+      </c>
+      <c r="F94">
+        <v>-0.4211619292508021</v>
+      </c>
+      <c r="G94">
+        <v>0.1381526535938161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006192348044146721</v>
+        <v>0.08549673754226254</v>
       </c>
       <c r="C95">
-        <v>0.04080612562256162</v>
+        <v>0.07665744874927512</v>
       </c>
       <c r="D95">
-        <v>0.08033813492993702</v>
+        <v>0.007393339123468602</v>
       </c>
       <c r="E95">
-        <v>-0.1146744561110303</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06589394739528648</v>
+      </c>
+      <c r="F95">
+        <v>0.1995300471183236</v>
+      </c>
+      <c r="G95">
+        <v>0.05866493558273541</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.005786910491648221</v>
+        <v>0.2050870827641252</v>
       </c>
       <c r="C98">
-        <v>0.1541036770816366</v>
+        <v>0.04819062142757716</v>
       </c>
       <c r="D98">
-        <v>0.1221648977829075</v>
+        <v>0.01645376170024166</v>
       </c>
       <c r="E98">
-        <v>-0.06689694933489672</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04277758803531517</v>
+      </c>
+      <c r="F98">
+        <v>0.2602397674823394</v>
+      </c>
+      <c r="G98">
+        <v>0.02735294033047341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007090906041267523</v>
+        <v>0.01234310378739615</v>
       </c>
       <c r="C101">
-        <v>0.01642254523551665</v>
+        <v>0.02150329107374567</v>
       </c>
       <c r="D101">
-        <v>0.01551057515945731</v>
+        <v>-0.007237349418244616</v>
       </c>
       <c r="E101">
-        <v>0.007191552293778731</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.009207157063561221</v>
+      </c>
+      <c r="F101">
+        <v>-0.01396164947884711</v>
+      </c>
+      <c r="G101">
+        <v>-0.03125968623336235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0144145288182284</v>
+        <v>0.1203830282987417</v>
       </c>
       <c r="C102">
-        <v>0.08999464417423611</v>
+        <v>0.08687819363083078</v>
       </c>
       <c r="D102">
-        <v>0.130473009171791</v>
+        <v>-0.0005619482513548674</v>
       </c>
       <c r="E102">
-        <v>-0.02118953355645169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03614486800365561</v>
+      </c>
+      <c r="F102">
+        <v>-0.05551657935658531</v>
+      </c>
+      <c r="G102">
+        <v>0.01002349354412197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001797302802575129</v>
+        <v>0.004441427892112954</v>
       </c>
       <c r="C103">
-        <v>0.01323983980908843</v>
+        <v>0.005549999477716377</v>
       </c>
       <c r="D103">
-        <v>0.02993730880132872</v>
+        <v>-0.0004127039161271949</v>
       </c>
       <c r="E103">
-        <v>0.01230137904876631</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002403712312980018</v>
+      </c>
+      <c r="F103">
+        <v>-0.01018591838079461</v>
+      </c>
+      <c r="G103">
+        <v>-0.01712932019419805</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9837739263523669</v>
+        <v>0.03415479161438296</v>
       </c>
       <c r="C104">
-        <v>-0.1165727554551795</v>
+        <v>-0.03897715797270349</v>
       </c>
       <c r="D104">
-        <v>-0.01168069671013675</v>
+        <v>-0.9873424068908403</v>
       </c>
       <c r="E104">
-        <v>0.02818902819032554</v>
+        <v>0.03284452200376908</v>
+      </c>
+      <c r="F104">
+        <v>-0.04397395803107962</v>
+      </c>
+      <c r="G104">
+        <v>0.008384922262617375</v>
       </c>
     </row>
   </sheetData>
